--- a/biology/Neurosciences/Heather_Berlin/Heather_Berlin.xlsx
+++ b/biology/Neurosciences/Heather_Berlin/Heather_Berlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heather A. Berlin (aussi H. A. Berlin), née à New York, est une neurologue américaine dont les recherches portent sur les relations entre le cerveau et le comportement, affectant la prévention et le traitement des troubles psychiques impulsifs et compulsifs.
 Elle s'intéresse également aux bases neuronales de la conscience, aux processus inconscients dynamiques et à la créativité.
